--- a/exp/exp_20250603.xlsx
+++ b/exp/exp_20250603.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesuren/Desktop/ActiveResearch/sota_models/uSpec/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC430617-A49F-E44A-B8A9-178847BEA6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D852E462-0DD1-CF47-BD0D-D5CCA317092E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="2680" windowWidth="28040" windowHeight="17440" xr2:uid="{821552D3-7743-F64A-BCDC-91A0F6CDB6BD}"/>
+    <workbookView xWindow="3980" yWindow="2680" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{821552D3-7743-F64A-BCDC-91A0F6CDB6BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>NDCG@20=0.129726</t>
   </si>
@@ -81,13 +82,22 @@
   </si>
   <si>
     <t>Final Results: Recall@20=0.266248, NDCG@20=0.209340, Precision@20=0.074166</t>
+  </si>
+  <si>
+    <t>======================================================================</t>
+  </si>
+  <si>
+    <t>              FINAL RESULTS (SIMPLIFIED MSE TRAINING) - yelp2018, filter - i</t>
+  </si>
+  <si>
+    <t>Final Results: Recall@20=0.062115, NDCG@20=0.050545, Precision@20=0.028676</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,6 +108,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFC2118"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -122,12 +138,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C13568-9CED-F04C-AFE8-D82B8CE22101}">
   <dimension ref="H14:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -568,4 +585,39 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4783F72-20B2-4C46-90AB-3E0AD2E56D5A}">
+  <dimension ref="D11:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/exp/exp_20250603.xlsx
+++ b/exp/exp_20250603.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesuren/Desktop/ActiveResearch/sota_models/uSpec/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D852E462-0DD1-CF47-BD0D-D5CCA317092E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AA8F35-61C3-0E4A-B42D-1D01C7D8BED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="2680" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{821552D3-7743-F64A-BCDC-91A0F6CDB6BD}"/>
+    <workbookView xWindow="3980" yWindow="2680" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{821552D3-7743-F64A-BCDC-91A0F6CDB6BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="gowalla" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>NDCG@20=0.129726</t>
   </si>
@@ -91,6 +93,27 @@
   </si>
   <si>
     <t>Final Results: Recall@20=0.062115, NDCG@20=0.050545, Precision@20=0.028676</t>
+  </si>
+  <si>
+    <t>              FINAL RESULTS (SIMPLIFIED MSE TRAINING) - yelp2018, filter - u</t>
+  </si>
+  <si>
+    <t>Final Results: Recall@20=0.067255, NDCG@20=0.055746, Precision@20=0.030506</t>
+  </si>
+  <si>
+    <t>Total experiment time: 1675.29s</t>
+  </si>
+  <si>
+    <t>              FINAL RESULTS (SIMPLIFIED MSE TRAINING) - gowalla, filter - u</t>
+  </si>
+  <si>
+    <t>Final Results: Recall@20=0.180436, NDCG@20=0.150741, Precision@20=0.055615</t>
+  </si>
+  <si>
+    <t>Total experiment time: 3380.67s</t>
+  </si>
+  <si>
+    <t>Total experiment time: 3399.47s</t>
   </si>
 </sst>
 </file>
@@ -591,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4783F72-20B2-4C46-90AB-3E0AD2E56D5A}">
   <dimension ref="D11:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -620,4 +643,133 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28139BF-1439-3D4D-8B29-6FA5696E1BCC}">
+  <dimension ref="E19:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC211E7F-F5C9-684D-B440-9FEA88489976}">
+  <dimension ref="E9:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="9" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G21" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/exp/exp_20250603.xlsx
+++ b/exp/exp_20250603.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesuren/Desktop/ActiveResearch/sota_models/uSpec/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AA8F35-61C3-0E4A-B42D-1D01C7D8BED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB22713-A1A7-D04C-BE69-5C48E928EAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3980" yWindow="2680" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{821552D3-7743-F64A-BCDC-91A0F6CDB6BD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="double" sheetId="3" r:id="rId3"/>
     <sheet name="gowalla" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>NDCG@20=0.129726</t>
   </si>
@@ -114,6 +114,24 @@
   </si>
   <si>
     <t>Total experiment time: 3399.47s</t>
+  </si>
+  <si>
+    <t>              FINAL RESULTS (SIMPLIFIED MSE TRAINING) - gowalla, filter - u, double</t>
+  </si>
+  <si>
+    <t>Final Results: Recall@20=0.180360, NDCG@20=0.150644, Precision@20=0.055585</t>
+  </si>
+  <si>
+    <t>Total experiment time: 12694.27s</t>
+  </si>
+  <si>
+    <t>              FINAL RESULTS (SIMPLIFIED MSE TRAINING) - yelp2018, filter - u, double</t>
+  </si>
+  <si>
+    <t>Final Results: Recall@20=0.064220, NDCG@20=0.053056, Precision@20=0.028699</t>
+  </si>
+  <si>
+    <t>Total experiment time: 3306.79s</t>
   </si>
 </sst>
 </file>
@@ -647,10 +665,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28139BF-1439-3D4D-8B29-6FA5696E1BCC}">
-  <dimension ref="E19:F24"/>
+  <dimension ref="E19:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -685,6 +703,39 @@
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F27" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F29" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F31" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F32" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -695,10 +746,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC211E7F-F5C9-684D-B440-9FEA88489976}">
-  <dimension ref="E9:G25"/>
+  <dimension ref="E9:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,6 +820,39 @@
         <v>15</v>
       </c>
     </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G29" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G33" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G34" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exp/exp_20250603.xlsx
+++ b/exp/exp_20250603.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesuren/Desktop/ActiveResearch/sota_models/uSpec/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB22713-A1A7-D04C-BE69-5C48E928EAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBE5DF0-4395-A64B-BBBA-8ADF2D5B0CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="2680" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{821552D3-7743-F64A-BCDC-91A0F6CDB6BD}"/>
+    <workbookView xWindow="4360" yWindow="3400" windowWidth="30100" windowHeight="17440" xr2:uid="{821552D3-7743-F64A-BCDC-91A0F6CDB6BD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="yelp2018" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="double" sheetId="3" r:id="rId3"/>
     <sheet name="gowalla" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,37 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
-  <si>
-    <t>NDCG@20=0.129726</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>NDCG@20=0.112493</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>ui</t>
-  </si>
-  <si>
-    <t>NDCG@20=0.129369</t>
-  </si>
-  <si>
-    <t>Final Results: Recall@20=0.262379, NDCG@20=0.206285, Precision@20=0.073547</t>
-  </si>
-  <si>
-    <t>Final Results: Recall@20=0.264874, NDCG@20=0.210588, Precision@20=0.074408</t>
-  </si>
-  <si>
-    <t>Final Results: Recall@20=0.268130, NDCG@20=0.210387, Precision@20=0.074865</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="85">
   <si>
     <t>single</t>
   </si>
@@ -77,15 +47,6 @@
     <t>double</t>
   </si>
   <si>
-    <t>Final Results: Recall@20=0.251055, NDCG@20=0.195056, Precision@20=0.070318</t>
-  </si>
-  <si>
-    <t>Final Results: Recall@20=0.233208, NDCG@20=0.168305, Precision@20=0.064128</t>
-  </si>
-  <si>
-    <t>Final Results: Recall@20=0.266248, NDCG@20=0.209340, Precision@20=0.074166</t>
-  </si>
-  <si>
     <t>======================================================================</t>
   </si>
   <si>
@@ -132,6 +93,207 @@
   </si>
   <si>
     <t>Total experiment time: 3306.79s</t>
+  </si>
+  <si>
+    <t>FINAL RESULTS - yelp2018</t>
+  </si>
+  <si>
+    <t>Filter: i, Design: adaptive_golden</t>
+  </si>
+  <si>
+    <t>Init: golden_036, Type: single</t>
+  </si>
+  <si>
+    <t>Final Test Results: Recall@20=0.053049, NDCG@20=0.042807, Precision@20=0.024814</t>
+  </si>
+  <si>
+    <t>python main.py --dataset yelp2018 --filter_design adaptive_golden --init_filter golden_036 --filter i --epochs 200 --patience 30 --n_eigen 1200 </t>
+  </si>
+  <si>
+    <t>FINAL RESULTS - gowalla</t>
+  </si>
+  <si>
+    <t>Final Test Results: Recall@20=0.125264, NDCG@20=0.094127, Precision@20=0.038782</t>
+  </si>
+  <si>
+    <t>Total experiment time: 7417.35s</t>
+  </si>
+  <si>
+    <t>python main.py --dataset gowalla --filter_design adaptive_golden --init_filter golden_036 --filter i --epochs 200 --patience 50 --n_eigen 200 </t>
+  </si>
+  <si>
+    <t>Filter: u, Design: adaptive_golden</t>
+  </si>
+  <si>
+    <t>Final Test Results: Recall@20=0.171216, NDCG@20=0.141710, Precision@20=0.052602</t>
+  </si>
+  <si>
+    <t>Total experiment time: 2513.65s</t>
+  </si>
+  <si>
+    <t>python main.py --dataset gowalla --filter_design adaptive_golden --init_filter golden_036 --filter u --epochs 200 --patience 20 </t>
+  </si>
+  <si>
+    <t>Final Test Results: Recall@20=0.063192, NDCG@20=0.052624, Precision@20=0.028756</t>
+  </si>
+  <si>
+    <t>Total experiment time: 3042.26s</t>
+  </si>
+  <si>
+    <t>python main.py --dataset yelp2018 --filter_design adaptive_golden --init_filter golden_036 --filter u --epochs 200 --patience 30 --n_eigen 1200</t>
+  </si>
+  <si>
+    <t>Final Test Results: Recall@20=0.171276, NDCG@20=0.141984, Precision@20=0.052594</t>
+  </si>
+  <si>
+    <t>Total experiment time: 2519.72s</t>
+  </si>
+  <si>
+    <t>python main.py --dataset gowalla --filter_design adaptive_golden --init_filter golden_036 --filter u --epochs 200 --patience 20 --lr 0.0001</t>
+  </si>
+  <si>
+    <t>Final Test Results: Recall@20=0.064274, NDCG@20=0.052983, Precision@20=0.028991</t>
+  </si>
+  <si>
+    <t>Total experiment time: 2559.95s</t>
+  </si>
+  <si>
+    <t>python main.py --dataset yelp2018 --filter_design adaptive_golden --init_filter golden_036 --filter u --epochs 200 --patience 30 --n_eigen 800</t>
+  </si>
+  <si>
+    <t>Final Test Results: Recall@20=0.064456, NDCG@20=0.052994, Precision@20=0.029047</t>
+  </si>
+  <si>
+    <t>Total experiment time: 2493.92s</t>
+  </si>
+  <si>
+    <t>python main.py --dataset yelp2018 --filter_design adaptive_golden --init_filter golden_036 --filter u --epochs 200 --patience 30 --n_eigen 700</t>
+  </si>
+  <si>
+    <t>Filter: ui, Design: adaptive_golden</t>
+  </si>
+  <si>
+    <t>Final Test Results: Recall@20=0.168251, NDCG@20=0.135585, Precision@20=0.051305</t>
+  </si>
+  <si>
+    <t>Total experiment time: 7409.23s</t>
+  </si>
+  <si>
+    <t>python main.py --dataset gowalla --filter_design adaptive_golden --init_filter golden_036 --filter ui --epochs 200 --patience 20 --lr 0.0001</t>
+  </si>
+  <si>
+    <t>Final Test Results: Recall@20=0.065351, NDCG@20=0.053679, Precision@20=0.029561</t>
+  </si>
+  <si>
+    <t>Total experiment time: 5324.89s</t>
+  </si>
+  <si>
+    <t>python main.py --dataset yelp2018 --filter_design adaptive_golden --init_filter golden_036 --filter ui --epochs 200 --patience 30 --n_eigen 700</t>
+  </si>
+  <si>
+    <t>Final Test Results: Recall@20=0.173414, NDCG@20=0.142602, Precision@20=0.053498</t>
+  </si>
+  <si>
+    <t>Total experiment time: 2365.55s</t>
+  </si>
+  <si>
+    <t>python main.py --dataset gowalla --filter_design adaptive_golden --init_filter golden_036 --filter u --epochs 200 --patience 20 --lr 0.0001 --n_eigen 800</t>
+  </si>
+  <si>
+    <t>Final Test Results: Recall@20=0.171425, NDCG@20=0.141259, Precision@20=0.053448</t>
+  </si>
+  <si>
+    <t>Total experiment time: 2755.73s</t>
+  </si>
+  <si>
+    <t>python main.py --dataset gowalla --filter_design adaptive_golden --init_filter golden_036 --filter u --epochs 200 --patience 20 --lr 0.0001 --n_eigen 1200</t>
+  </si>
+  <si>
+    <t>Final Test Results: Recall@20=0.064192, NDCG@20=0.053205, Precision@20=0.029181</t>
+  </si>
+  <si>
+    <t>Total experiment time: 6032.44s</t>
+  </si>
+  <si>
+    <t>python main.py --dataset yelp2018 --filter_design adaptive_golden --init_filter golden_036 --filter ui --epochs 200 --patience 30 --n_eigen 1000</t>
+  </si>
+  <si>
+    <t>Final Test Results: Recall@20=0.172701, NDCG@20=0.141835, Precision@20=0.053487</t>
+  </si>
+  <si>
+    <t>Total experiment time: 2775.86s</t>
+  </si>
+  <si>
+    <t>python main.py --dataset gowalla --filter_design adaptive_golden --init_filter golden_036 --filter u --epochs 200 --patience 20 --lr 0.0001 --n_eigen 1000</t>
+  </si>
+  <si>
+    <t>Final Test Results: Recall@20=0.065639, NDCG@20=0.053857, Precision@20=0.029625</t>
+  </si>
+  <si>
+    <t>Total experiment time: 5045.81s</t>
+  </si>
+  <si>
+    <t>python main.py --dataset yelp2018 --filter_design adaptive_golden --init_filter golden_036 --filter ui --epochs 200 --patience 30 --n_eigen 600 </t>
+  </si>
+  <si>
+    <t>Final Test Results: Recall@20=0.172644, NDCG@20=0.142626, Precision@20=0.053011</t>
+  </si>
+  <si>
+    <t>Total experiment time: 2426.22s</t>
+  </si>
+  <si>
+    <t>python main.py --dataset gowalla --filter_design adaptive_golden --init_filter golden_036 --filter u --epochs 200 --patience 20 --lr 0.0001 --n_eigen 600</t>
+  </si>
+  <si>
+    <t>Final Test Results: Recall@20=0.170357, NDCG@20=0.141451, Precision@20=0.052113</t>
+  </si>
+  <si>
+    <t>Total experiment time: 3685.06s</t>
+  </si>
+  <si>
+    <t>python main.py --dataset gowalla --filter_design adaptive_golden --init_filter golden_036 --filter u --epochs 200 --patience 20 --lr 0.0001 --n_eigen 400</t>
+  </si>
+  <si>
+    <t>Total experiment time: 3012.94s</t>
+  </si>
+  <si>
+    <t>python main.py --dataset gowalla --filter_design adaptive_golden --init_filter golden_036 --filter u --epochs 200 --patience 20 --lr 0.0001 --n_eigen 500</t>
+  </si>
+  <si>
+    <t>Final Test Results: Recall@20=0.065593, NDCG@20=0.053651, Precision@20=0.029580</t>
+  </si>
+  <si>
+    <t>Total experiment time: 4804.36s</t>
+  </si>
+  <si>
+    <t>python main.py --dataset yelp2018 --filter_design adaptive_golden --init_filter golden_036 --filter ui --epochs 200 --patience 30 --n_eigen 500</t>
+  </si>
+  <si>
+    <t>Final Test Results: Recall@20=0.173417, NDCG@20=0.142843, Precision@20=0.053374</t>
+  </si>
+  <si>
+    <t>Total experiment time: 3019.77s</t>
+  </si>
+  <si>
+    <t>python main.py --dataset gowalla --filter_design adaptive_golden --init_filter golden_036 --filter u --epochs 200 --patience 20 --lr 0.0001 --n_eigen 700</t>
+  </si>
+  <si>
+    <t>Final Test Results: Recall@20=0.065641, NDCG@20=0.053819, Precision@20=0.029621</t>
+  </si>
+  <si>
+    <t>Total experiment time: 5159.54s</t>
+  </si>
+  <si>
+    <t>python main.py --dataset yelp2018 --filter_design adaptive_golden --init_filter golden_036 --filter ui --epochs 200 --patience 30 --n_eigen 650</t>
+  </si>
+  <si>
+    <t>Final Test Results: Recall@20=0.064961, NDCG@20=0.053329, Precision@20=0.029364</t>
+  </si>
+  <si>
+    <t>Total experiment time: 5220.65s</t>
+  </si>
+  <si>
+    <t>python main.py --dataset yelp2018 --filter_design adaptive_golden --init_filter golden_036 --filter ui --epochs 200 --patience 30 --n_eigen 650 --lr 0.01</t>
   </si>
 </sst>
 </file>
@@ -520,107 +682,475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C13568-9CED-F04C-AFE8-D82B8CE22101}">
-  <dimension ref="H14:K34"/>
+  <dimension ref="D5:K118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="14" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="10:11" x14ac:dyDescent="0.2">
-      <c r="J16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="J17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H26" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H29" t="s">
-        <v>1</v>
-      </c>
-      <c r="I29" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="8:11" x14ac:dyDescent="0.2">
-      <c r="H30" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" t="s">
-        <v>11</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.2">
-      <c r="H34" t="s">
-        <v>4</v>
-      </c>
-      <c r="I34" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>12</v>
+    <row r="5" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="J15" s="2"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="J17" s="2"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D18" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D20" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D22" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D24" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D28" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D31" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D32" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D35" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D36" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D37" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D40" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D41" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D42" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D43" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D44" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D45" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D46" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D47" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D48" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D51" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D52" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D53" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D54" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D55" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D56" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D57" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D58" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D59" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D62" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D64" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D65" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D66" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D67" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D68" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D69" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D70" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D71" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D74" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D76" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D77" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D78" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D79" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D80" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D81" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D82" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D83" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D86" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D87" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D88" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D89" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D90" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D91" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D92" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D93" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D94" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D97" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D99" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D100" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D101" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D102" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D103" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D104" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D105" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D106" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D109" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D111" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D112" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D113" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D114" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D115" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D116" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D117" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D118" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -640,22 +1170,22 @@
   <sheetData>
     <row r="11" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D13" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -667,76 +1197,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28139BF-1439-3D4D-8B29-6FA5696E1BCC}">
   <dimension ref="E19:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="19" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F19" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F21" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F22" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F23" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F24" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F27" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F29" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F30" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F31" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F32" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -746,111 +1276,609 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC211E7F-F5C9-684D-B440-9FEA88489976}">
-  <dimension ref="E9:G34"/>
+  <dimension ref="E9:G166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="9" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G9" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G10" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G12" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G13" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G14" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G20" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G21" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G23" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G24" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G25" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G29" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G30" s="3" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G33" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G34" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E39" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G33" s="3" t="s">
+    <row r="41" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G41" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G42" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G44" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G46" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G47" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G48" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E51" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G52" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G53" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G54" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G34" s="3" t="s">
-        <v>15</v>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G55" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G56" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G57" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G58" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G59" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E62" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G64" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G65" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G66" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G67" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G68" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G69" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G70" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G71" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E75" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G76" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G77" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G78" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G79" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G80" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G81" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G82" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G83" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E86" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G88" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G89" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G90" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G91" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G92" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G93" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G94" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G95" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E99" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G101" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G102" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G103" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G104" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G105" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G106" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G107" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="108" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G108" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E111" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G112" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G113" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G114" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G115" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G116" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G117" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G118" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G119" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E122" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G124" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G125" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G126" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G127" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G128" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G129" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="130" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G130" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="131" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G131" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E134" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="136" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G136" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G137" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G138" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G139" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G140" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G141" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="142" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G142" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="143" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G143" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E146" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="148" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G148" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G149" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G150" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G151" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G152" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G153" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="154" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G154" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="155" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G155" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E157" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="159" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G159" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G160" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G161" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G162" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G163" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G164" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="165" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G165" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="166" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G166" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/exp/exp_20250603.xlsx
+++ b/exp/exp_20250603.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesuren/Desktop/ActiveResearch/sota_models/uSpec/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBE5DF0-4395-A64B-BBBA-8ADF2D5B0CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3080F59-9E6E-A841-BEA2-F42E4D409654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="3400" windowWidth="30100" windowHeight="17440" xr2:uid="{821552D3-7743-F64A-BCDC-91A0F6CDB6BD}"/>
+    <workbookView xWindow="4360" yWindow="3400" windowWidth="30100" windowHeight="17440" activeTab="3" xr2:uid="{821552D3-7743-F64A-BCDC-91A0F6CDB6BD}"/>
   </bookViews>
   <sheets>
     <sheet name="yelp2018" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="89">
   <si>
     <t>single</t>
   </si>
@@ -294,6 +294,18 @@
   </si>
   <si>
     <t>python main.py --dataset yelp2018 --filter_design adaptive_golden --init_filter golden_036 --filter ui --epochs 200 --patience 30 --n_eigen 650 --lr 0.01</t>
+  </si>
+  <si>
+    <t>Init: golden_036, Type: double</t>
+  </si>
+  <si>
+    <t>Final Test Results: Recall@20=0.173450, NDCG@20=0.142886, Precision@20=0.053369</t>
+  </si>
+  <si>
+    <t>Total experiment time: 8785.12s</t>
+  </si>
+  <si>
+    <t>python main.py --dataset gowalla --filter_design adaptive_golden --init_filter golden_036 --filter u --epochs 200 --patience 20 --lr 0.0001 --n_eigen 700 --m_type double</t>
   </si>
 </sst>
 </file>
@@ -684,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C13568-9CED-F04C-AFE8-D82B8CE22101}">
   <dimension ref="D5:K118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="O116" sqref="O116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1276,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC211E7F-F5C9-684D-B440-9FEA88489976}">
-  <dimension ref="E9:G166"/>
+  <dimension ref="E9:G180"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="R51" sqref="R51"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="N183" sqref="N183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1851,33 +1863,78 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G161" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G162" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G163" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G164" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="165" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G165" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="166" spans="7:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G166" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E172" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="173" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G173" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G174" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G175" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="176" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G176" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="177" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G177" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G178" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="179" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G179" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="180" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G180" s="3" t="s">
         <v>2</v>
       </c>
     </row>

--- a/exp/exp_20250603.xlsx
+++ b/exp/exp_20250603.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesuren/Desktop/ActiveResearch/sota_models/uSpec/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3080F59-9E6E-A841-BEA2-F42E4D409654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F8A53F-A14A-9A44-A72D-70CE623CE06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="3400" windowWidth="30100" windowHeight="17440" activeTab="3" xr2:uid="{821552D3-7743-F64A-BCDC-91A0F6CDB6BD}"/>
+    <workbookView xWindow="4360" yWindow="3400" windowWidth="30100" windowHeight="17440" activeTab="1" xr2:uid="{821552D3-7743-F64A-BCDC-91A0F6CDB6BD}"/>
   </bookViews>
   <sheets>
     <sheet name="yelp2018" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="lastfm" sheetId="2" r:id="rId2"/>
     <sheet name="double" sheetId="3" r:id="rId3"/>
     <sheet name="gowalla" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="89">
   <si>
     <t>single</t>
   </si>
@@ -50,12 +50,6 @@
     <t>======================================================================</t>
   </si>
   <si>
-    <t>              FINAL RESULTS (SIMPLIFIED MSE TRAINING) - yelp2018, filter - i</t>
-  </si>
-  <si>
-    <t>Final Results: Recall@20=0.062115, NDCG@20=0.050545, Precision@20=0.028676</t>
-  </si>
-  <si>
     <t>              FINAL RESULTS (SIMPLIFIED MSE TRAINING) - yelp2018, filter - u</t>
   </si>
   <si>
@@ -306,13 +300,19 @@
   </si>
   <si>
     <t>python main.py --dataset gowalla --filter_design adaptive_golden --init_filter golden_036 --filter u --epochs 200 --patience 20 --lr 0.0001 --n_eigen 700 --m_type double</t>
+  </si>
+  <si>
+    <t>{'precision': array([0.04329925]), 'recall': array([0.15573252]), 'ndcg': array([0.06641467])}</t>
+  </si>
+  <si>
+    <t>Original GF_CF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -332,13 +332,26 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -353,13 +366,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,15 +710,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C13568-9CED-F04C-AFE8-D82B8CE22101}">
   <dimension ref="D5:K118"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="O116" sqref="O116"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="P115" sqref="P115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="5" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.2">
@@ -714,17 +728,17 @@
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.2">
@@ -734,7 +748,7 @@
     </row>
     <row r="11" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.2">
@@ -743,7 +757,7 @@
     </row>
     <row r="16" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="1"/>
@@ -759,17 +773,17 @@
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D21" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="4:11" x14ac:dyDescent="0.2">
@@ -779,12 +793,12 @@
     </row>
     <row r="23" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D24" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="4:11" x14ac:dyDescent="0.2">
@@ -798,7 +812,7 @@
     </row>
     <row r="28" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D28" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="4:11" x14ac:dyDescent="0.2">
@@ -812,17 +826,17 @@
     </row>
     <row r="31" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D31" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D32" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D33" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -834,12 +848,12 @@
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D35" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D36" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.2">
@@ -849,7 +863,7 @@
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D40" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.2">
@@ -859,17 +873,17 @@
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D42" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D43" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D44" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="4:10" x14ac:dyDescent="0.2">
@@ -879,12 +893,12 @@
     </row>
     <row r="46" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D46" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D47" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="4:10" x14ac:dyDescent="0.2">
@@ -894,7 +908,7 @@
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D51" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.2">
@@ -904,17 +918,17 @@
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D53" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D54" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D55" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.2">
@@ -924,12 +938,12 @@
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D57" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D58" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.2">
@@ -939,7 +953,7 @@
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D62" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.2">
@@ -949,17 +963,17 @@
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D65" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D66" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D67" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.2">
@@ -969,12 +983,12 @@
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D69" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D70" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.2">
@@ -984,7 +998,7 @@
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D74" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.2">
@@ -994,17 +1008,17 @@
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D77" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D78" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D79" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.2">
@@ -1014,12 +1028,12 @@
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D81" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D82" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.2">
@@ -1029,7 +1043,7 @@
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D86" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.2">
@@ -1039,17 +1053,17 @@
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D88" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D89" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D90" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.2">
@@ -1059,12 +1073,12 @@
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D92" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D93" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.2">
@@ -1074,7 +1088,7 @@
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D97" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.2">
@@ -1087,17 +1101,17 @@
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D100" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D101" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D102" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.2">
@@ -1107,12 +1121,12 @@
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D104" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D105" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.2">
@@ -1122,7 +1136,7 @@
     </row>
     <row r="109" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D109" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111" spans="4:4" x14ac:dyDescent="0.2">
@@ -1132,17 +1146,17 @@
     </row>
     <row r="112" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D112" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D113" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D114" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.2">
@@ -1152,12 +1166,12 @@
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D116" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D117" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.2">
@@ -1172,33 +1186,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4783F72-20B2-4C46-90AB-3E0AD2E56D5A}">
-  <dimension ref="D11:D14"/>
+  <dimension ref="B10:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D11" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D13" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D14" s="1" t="s">
-        <v>4</v>
-      </c>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1209,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28139BF-1439-3D4D-8B29-6FA5696E1BCC}">
   <dimension ref="E19:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1225,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.2">
@@ -1235,12 +1252,12 @@
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F22" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F23" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.2">
@@ -1258,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.2">
@@ -1268,12 +1285,12 @@
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F30" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="5:6" x14ac:dyDescent="0.2">
       <c r="F31" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.2">
@@ -1290,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC211E7F-F5C9-684D-B440-9FEA88489976}">
   <dimension ref="E9:G180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="N183" sqref="N183"/>
+    <sheetView topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="N182" sqref="N182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1303,7 +1320,7 @@
     </row>
     <row r="10" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G10" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="5:7" x14ac:dyDescent="0.2">
@@ -1316,12 +1333,12 @@
     </row>
     <row r="12" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G12" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G13" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="5:7" x14ac:dyDescent="0.2">
@@ -1336,7 +1353,7 @@
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G21" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.2">
@@ -1349,12 +1366,12 @@
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G23" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G24" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="5:7" x14ac:dyDescent="0.2">
@@ -1369,7 +1386,7 @@
     </row>
     <row r="30" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G30" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="5:7" x14ac:dyDescent="0.2">
@@ -1382,12 +1399,12 @@
     </row>
     <row r="32" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G32" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G33" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="5:7" x14ac:dyDescent="0.2">
@@ -1397,7 +1414,7 @@
     </row>
     <row r="39" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E39" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="5:7" x14ac:dyDescent="0.2">
@@ -1407,17 +1424,17 @@
     </row>
     <row r="42" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G42" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G43" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G44" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="5:7" x14ac:dyDescent="0.2">
@@ -1430,12 +1447,12 @@
     </row>
     <row r="46" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G46" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G47" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="5:7" x14ac:dyDescent="0.2">
@@ -1445,7 +1462,7 @@
     </row>
     <row r="51" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E51" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.2">
@@ -1455,17 +1472,17 @@
     </row>
     <row r="53" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G53" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G54" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G55" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="5:7" x14ac:dyDescent="0.2">
@@ -1475,12 +1492,12 @@
     </row>
     <row r="57" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G57" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G58" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" spans="5:7" x14ac:dyDescent="0.2">
@@ -1490,7 +1507,7 @@
     </row>
     <row r="62" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E62" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="5:7" x14ac:dyDescent="0.2">
@@ -1500,17 +1517,17 @@
     </row>
     <row r="65" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G65" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G66" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G67" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="5:7" x14ac:dyDescent="0.2">
@@ -1520,12 +1537,12 @@
     </row>
     <row r="69" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G69" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G70" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="5:7" x14ac:dyDescent="0.2">
@@ -1535,7 +1552,7 @@
     </row>
     <row r="75" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E75" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="5:7" x14ac:dyDescent="0.2">
@@ -1545,17 +1562,17 @@
     </row>
     <row r="77" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G77" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G78" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G79" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="5:7" x14ac:dyDescent="0.2">
@@ -1565,12 +1582,12 @@
     </row>
     <row r="81" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G81" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G82" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="5:7" x14ac:dyDescent="0.2">
@@ -1580,7 +1597,7 @@
     </row>
     <row r="86" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E86" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="5:7" x14ac:dyDescent="0.2">
@@ -1590,17 +1607,17 @@
     </row>
     <row r="89" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G89" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G90" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G91" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="5:7" x14ac:dyDescent="0.2">
@@ -1610,12 +1627,12 @@
     </row>
     <row r="93" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G93" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G94" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="5:7" x14ac:dyDescent="0.2">
@@ -1625,7 +1642,7 @@
     </row>
     <row r="99" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E99" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="5:7" x14ac:dyDescent="0.2">
@@ -1635,17 +1652,17 @@
     </row>
     <row r="102" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G102" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G103" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G104" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="5:7" x14ac:dyDescent="0.2">
@@ -1655,12 +1672,12 @@
     </row>
     <row r="106" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G106" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="107" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G107" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108" spans="5:7" x14ac:dyDescent="0.2">
@@ -1670,7 +1687,7 @@
     </row>
     <row r="111" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E111" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" spans="5:7" x14ac:dyDescent="0.2">
@@ -1680,17 +1697,17 @@
     </row>
     <row r="113" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G113" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="114" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G114" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G115" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="5:7" x14ac:dyDescent="0.2">
@@ -1700,12 +1717,12 @@
     </row>
     <row r="117" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G117" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G118" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="119" spans="5:7" x14ac:dyDescent="0.2">
@@ -1715,7 +1732,7 @@
     </row>
     <row r="122" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E122" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" spans="5:7" x14ac:dyDescent="0.2">
@@ -1725,17 +1742,17 @@
     </row>
     <row r="125" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G125" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="126" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G126" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="127" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G127" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="5:7" x14ac:dyDescent="0.2">
@@ -1745,12 +1762,12 @@
     </row>
     <row r="129" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G129" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="130" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G130" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="131" spans="5:7" x14ac:dyDescent="0.2">
@@ -1760,7 +1777,7 @@
     </row>
     <row r="134" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E134" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="136" spans="5:7" x14ac:dyDescent="0.2">
@@ -1770,17 +1787,17 @@
     </row>
     <row r="137" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G137" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="138" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G138" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G139" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="5:7" x14ac:dyDescent="0.2">
@@ -1790,12 +1807,12 @@
     </row>
     <row r="141" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G141" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="142" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G142" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="143" spans="5:7" x14ac:dyDescent="0.2">
@@ -1805,7 +1822,7 @@
     </row>
     <row r="146" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E146" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="148" spans="5:7" x14ac:dyDescent="0.2">
@@ -1815,17 +1832,17 @@
     </row>
     <row r="149" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G149" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G150" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G151" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="5:7" x14ac:dyDescent="0.2">
@@ -1835,12 +1852,12 @@
     </row>
     <row r="153" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G153" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G154" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="155" spans="5:7" x14ac:dyDescent="0.2">
@@ -1850,7 +1867,7 @@
     </row>
     <row r="157" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E157" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="159" spans="5:7" x14ac:dyDescent="0.2">
@@ -1860,17 +1877,17 @@
     </row>
     <row r="160" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G160" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="161" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G161" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="162" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G162" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="5:7" x14ac:dyDescent="0.2">
@@ -1880,12 +1897,12 @@
     </row>
     <row r="164" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G164" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="165" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G165" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166" spans="5:7" x14ac:dyDescent="0.2">
@@ -1895,7 +1912,7 @@
     </row>
     <row r="172" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E172" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="173" spans="5:7" x14ac:dyDescent="0.2">
@@ -1905,17 +1922,17 @@
     </row>
     <row r="174" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G174" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="175" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G175" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176" spans="5:7" x14ac:dyDescent="0.2">
       <c r="G176" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="177" spans="7:7" x14ac:dyDescent="0.2">
@@ -1925,12 +1942,12 @@
     </row>
     <row r="178" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G178" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="179" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G179" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="180" spans="7:7" x14ac:dyDescent="0.2">
